--- a/biology/Zoologie/Bathyphantes_eumenis/Bathyphantes_eumenis.xlsx
+++ b/biology/Zoologie/Bathyphantes_eumenis/Bathyphantes_eumenis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lepthyphantes des glacières
 Bathyphantes eumenis, le Lepthyphantes des glacières est une espèce d'araignées aranéomorphes de la famille des Linyphiidae.
@@ -512,9 +524,11 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Europe, en Chine, au Canada et en Alaska. Les pays européens concernés sont la Russie, la Finlande, la Norvège, l'Ukraine, la Pologne ou encore la Tchéquie. En Allemagne, en Belgique et en France, on ne trouve que la sous-espèce Bathyphantes eumenis buchari[1]. Cette dernière fréquente les coulées de pierres, en Forêt-Noire et dans les Vosges notamment[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Europe, en Chine, au Canada et en Alaska. Les pays européens concernés sont la Russie, la Finlande, la Norvège, l'Ukraine, la Pologne ou encore la Tchéquie. En Allemagne, en Belgique et en France, on ne trouve que la sous-espèce Bathyphantes eumenis buchari. Cette dernière fréquente les coulées de pierres, en Forêt-Noire et dans les Vosges notamment.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La sous-espèce Bathyphantes eumenis eumenis mesure environ 2,1 mm[1]. Les mâles de la sous-espèce Bathyphantes eumenis buchari mesurent environ 2,5 mm et les femelles environ 2,6 mm[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La sous-espèce Bathyphantes eumenis eumenis mesure environ 2,1 mm. Les mâles de la sous-espèce Bathyphantes eumenis buchari mesurent environ 2,5 mm et les femelles environ 2,6 mm.
 </t>
         </is>
       </c>
@@ -574,10 +590,12 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>L'espèce est décrite sous le nom de Linyphia eumenis par Ludwig Carl Christian Koch en 1879[4]. En 1973, elle est replacée dans le genre Bathyphantes par Åke Holm[5].
-Bathyphantes eumenis a pour synonymes[6] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>L'espèce est décrite sous le nom de Linyphia eumenis par Ludwig Carl Christian Koch en 1879. En 1973, elle est replacée dans le genre Bathyphantes par Åke Holm.
+Bathyphantes eumenis a pour synonymes :
 Bathyphantes emertoni Roewer, 1942
 Bathyphantes eumenoides Holm, 1967
 Bathyphantes haniensis Zhu, Wen &amp; Sun, 1986
@@ -611,9 +629,11 @@
           <t>Danger sur l'espèce</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est classée en danger critique sur la liste rouge des araignées de France métropolitaine[7].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est classée en danger critique sur la liste rouge des araignées de France métropolitaine.
 </t>
         </is>
       </c>
@@ -642,7 +662,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>(de) Ludwig Carl Christian Koch, « Arachniden aus Sibirien und Novaja Semlja, eingesammelt von der schwedischen Expedition im Jahre 1875 », Kongliga Svenska Vetenskaps-Akademiens Handlingar, vol. 16, no 5,‎ 1879, p. 1-136</t>
         </is>
